--- a/Reports/day4/tp4_1.xlsx
+++ b/Reports/day4/tp4_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Title</t>
   </si>
@@ -184,8 +184,10 @@
     <t>We would like to extract from our list all the surnames and first names of the Ladies and copy them elsewhere on the sheet.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Retour blended :: =BDMOYENNE or = DAVERAGE(A4:D8, "Unit Cost", A1:B2)
-=BDMOYENNE(A4:D8, 3, A1:B2) or =DAVERAGE</t>
+    <t>BDMOYENNE</t>
+  </si>
+  <si>
+    <t>DAVERAGE</t>
   </si>
 </sst>
 </file>
@@ -542,7 +544,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,10 +786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,8 +840,16 @@
       <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/day4/tp4_1.xlsx
+++ b/Reports/day4/tp4_1.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Questions" sheetId="2" r:id="rId2"/>
+    <sheet name="Solution" sheetId="3" r:id="rId3"/>
+    <sheet name="Sol TBD" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$7:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Solution!$A$1:$F$11</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Data!$A$7:$A$11</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">Solution!$A$15:$F$18</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Solution!$A$2:$F$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">Solution!$A$21:$F$2621</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="63">
   <si>
     <t>Title</t>
   </si>
@@ -188,13 +201,34 @@
   </si>
   <si>
     <t>DAVERAGE</t>
+  </si>
+  <si>
+    <t>D?</t>
+  </si>
+  <si>
+    <t>Copied Result</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>Somme de   ZipCode</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>R?</t>
+  </si>
+  <si>
+    <t>S?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +249,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +272,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -238,11 +287,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -261,11 +365,234 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF2D3B45"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -276,6 +603,347 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Auteur" refreshedDate="43858.435655787034" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tableau4"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Mister"/>
+        <s v="Madame"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Schwarzenegger"/>
+        <s v="Roberts"/>
+        <s v="Stone"/>
+        <s v="Pitt"/>
+        <s v="Di Caprio"/>
+        <s v="Moore"/>
+        <s v="Bullock"/>
+        <s v="Stalone"/>
+        <s v="Lopez"/>
+        <s v="Hanks"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Firstname" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Arnold"/>
+        <s v="Julia"/>
+        <s v="Sharon"/>
+        <s v="Brad"/>
+        <s v="Leonardo"/>
+        <s v="Demi"/>
+        <s v="Sandra"/>
+        <s v="Silvester"/>
+        <s v="jennifer"/>
+        <s v="Tom"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Address" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Terminator Bld, 12"/>
+        <s v="Rue de la Belle, 11"/>
+        <s v="Les Instincts, 10"/>
+        <s v="Ocean, 11"/>
+        <s v="Titanic, 1912"/>
+        <s v="Equity, 25"/>
+        <s v="Net, 123"/>
+        <s v="Boxe, 6"/>
+        <s v="Chanson"/>
+        <s v="Run, 34"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="  ZipCode" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="550" maxValue="69000"/>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Los Angeles"/>
+        <s v="Beverly Hills"/>
+        <s v="Lyon"/>
+        <s v="L.A."/>
+        <s v="London"/>
+        <s v="N.Y."/>
+        <s v="Cyberia"/>
+        <s v="Rambo"/>
+        <s v="Brussels"/>
+        <s v="Forrest"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="800"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5555"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="69000"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="6050"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="13000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="550"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="650"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="790"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="1303"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="580"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="1"/>
+    <field x="2"/>
+    <field x="3"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Somme de   ZipCode" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:F11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <tableColumns count="6">
+    <tableColumn id="1" name="Title" dataDxfId="7"/>
+    <tableColumn id="2" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" name="Firstname" dataDxfId="5"/>
+    <tableColumn id="4" name="Address" dataDxfId="4"/>
+    <tableColumn id="5" name="  ZipCode" dataDxfId="3"/>
+    <tableColumn id="6" name="City" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,17 +1211,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -788,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,4 +1523,615 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>800</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5555</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>69000</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6050</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>550</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
+        <v>650</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3">
+        <v>790</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1303</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>580</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="3">
+        <v>790</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="16">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="16">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="16">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="16">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="16">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="16">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="16">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="16">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="16">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="16">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="16">
+        <v>77058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>